--- a/Propane 34KW/Propane 34KW_AVE_MOL_FRAC.xlsx
+++ b/Propane 34KW/Propane 34KW_AVE_MOL_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 34KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Propane 34KW_Pool_Fire_GCMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B437DF27-52D3-4843-97A4-95FDBB38DA5A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE311A8-0755-43E0-BB46-EBAF00DFE923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-9675" windowWidth="16200" windowHeight="10995" xr2:uid="{BDB1C0B9-30B2-4B70-9DA6-E1359067795D}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{6E1BF8B4-D4AF-48DF-B2DB-AAD98FE3FAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B9CC0C-1947-49DA-B729-B6A2C90C5B22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938BA09E-7087-4016-8CEE-D73C8B8E9355}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2DF644-81D0-43F8-AE48-479F5825F03D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C725545F-5E0E-4724-972D-083013D0384E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8DD7A0-67D3-4F44-8D1A-B194B7C93503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2234320-0339-4940-98E4-817429447F6F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167BA0EB-A711-4095-9D99-8DAEAF697CA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D3596B-474B-4CFE-B879-90EAC47F6C45}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -610,55 +610,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.238603542765202E-2</v>
+        <v>4.2416321886191259E-2</v>
       </c>
       <c r="C2">
-        <v>3.099974036286178E-2</v>
+        <v>3.1021890874032565E-2</v>
       </c>
       <c r="D2">
-        <v>6.7743727835450185E-2</v>
+        <v>6.7794941715198453E-2</v>
       </c>
       <c r="E2">
-        <v>6.0535936336863858E-3</v>
+        <v>6.0579191600242579E-3</v>
       </c>
       <c r="F2">
-        <v>4.6156113148578129E-3</v>
+        <v>4.6189093473184856E-3</v>
       </c>
       <c r="G2">
-        <v>0.2394975144613333</v>
+        <v>0.23966864468072713</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.53098624711952069</v>
+        <v>0.53136565729072438</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.0406989342631316E-2</v>
+        <v>1.0414425538257169E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.7501507288841288E-2</v>
+        <v>3.7528303563468077E-2</v>
       </c>
       <c r="N2">
-        <v>1.1097491559860114E-2</v>
+        <v>1.110542114597559E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>5.9158143380009175E-4</v>
+        <v>3.5835549219290778E-4</v>
       </c>
       <c r="Q2">
-        <v>7.4935891129288815E-4</v>
+        <v>7.4989435716247546E-4</v>
       </c>
       <c r="R2">
-        <v>1.2959726690742267E-2</v>
+        <v>1.2968986915746532E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,55 +666,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.9854712637159418E-2</v>
+        <v>4.9871691237684021E-2</v>
       </c>
       <c r="C3">
-        <v>3.417201180358384E-2</v>
+        <v>3.4183649478476401E-2</v>
       </c>
       <c r="D3">
-        <v>8.5503426180578879E-2</v>
+        <v>8.5533883881667966E-2</v>
       </c>
       <c r="E3">
-        <v>7.040847187885016E-3</v>
+        <v>7.0432450300434539E-3</v>
       </c>
       <c r="F3">
-        <v>3.3312051092398024E-3</v>
+        <v>3.3323395897697779E-3</v>
       </c>
       <c r="G3">
-        <v>0.11995135897659526</v>
+        <v>0.1199922098029005</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.60901095859934062</v>
+        <v>0.60921836434363541</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.2971086578736295E-2</v>
+        <v>1.2975504032688821E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.348546309390975E-2</v>
+        <v>4.3500272572641857E-2</v>
       </c>
       <c r="N3">
-        <v>1.3272418703031783E-2</v>
+        <v>1.3276938779133593E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>5.5074649114848155E-4</v>
+        <v>6.9571561023542303E-4</v>
       </c>
       <c r="Q3">
-        <v>7.9806935507241981E-4</v>
+        <v>7.9834114684603516E-4</v>
       </c>
       <c r="R3">
-        <v>1.5642192324501463E-2</v>
+        <v>1.564751945449094E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,55 +722,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.0110850366160295E-2</v>
+        <v>5.0149641838854064E-2</v>
       </c>
       <c r="C4">
-        <v>3.6799998704895129E-2</v>
+        <v>3.6828486071093451E-2</v>
       </c>
       <c r="D4">
-        <v>8.4836327855876539E-2</v>
+        <v>8.4905043297850896E-2</v>
       </c>
       <c r="E4">
-        <v>7.1441488937721903E-3</v>
+        <v>7.1496792740133649E-3</v>
       </c>
       <c r="F4">
-        <v>1.0548263908397868E-3</v>
+        <v>1.0556429459139404E-3</v>
       </c>
       <c r="G4">
-        <v>9.9642017920740997E-2</v>
+        <v>9.971915212598946E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.62200822837689429</v>
+        <v>0.62248973318134337</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.4877731879237683E-2</v>
+        <v>1.4889248928454019E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.6484676934771686E-2</v>
+        <v>4.6520661338604698E-2</v>
       </c>
       <c r="N4">
-        <v>1.4049784036133613E-2</v>
+        <v>1.4060660159963248E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>8.9159808636116134E-4</v>
+        <v>5.9782789589095213E-4</v>
       </c>
       <c r="Q4">
-        <v>7.9290788951609384E-4</v>
+        <v>7.9352169001079974E-4</v>
       </c>
       <c r="R4">
-        <v>1.6897294794894265E-2</v>
+        <v>1.6910375214500891E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,55 +778,55 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>5.4079856532336788E-2</v>
+        <v>5.4105418071677992E-2</v>
       </c>
       <c r="C5">
-        <v>2.9551393013648435E-2</v>
+        <v>2.9565360859414681E-2</v>
       </c>
       <c r="D5">
-        <v>0.10005337034698911</v>
+        <v>0.10010251962298221</v>
       </c>
       <c r="E5">
-        <v>7.7817027209523227E-3</v>
+        <v>7.7853808427706499E-3</v>
       </c>
       <c r="F5">
-        <v>1.1857233904378865E-2</v>
+        <v>1.1862838378398502E-2</v>
       </c>
       <c r="G5">
-        <v>2.7927257063856108E-2</v>
+        <v>2.7940457240888766E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.68584846388467013</v>
+        <v>0.68617263897713099</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.2013066583409483E-2</v>
+        <v>1.2018744713748043E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.1738648725343039E-2</v>
+        <v>4.1758377034178333E-2</v>
       </c>
       <c r="N5">
-        <v>1.062506782457172E-2</v>
+        <v>1.0630089899455334E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>6.8891578754445501E-4</v>
+        <v>6.6922244800465271E-4</v>
       </c>
       <c r="Q5">
-        <v>5.2405883603196489E-4</v>
+        <v>5.2430653917715279E-4</v>
       </c>
       <c r="R5">
-        <v>1.2928112911354213E-2</v>
+        <v>1.2934223550101806E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,55 +834,55 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>5.2029709307566535E-2</v>
+        <v>5.2054107238151646E-2</v>
       </c>
       <c r="C6">
-        <v>1.5970385161081277E-2</v>
+        <v>1.597787404298668E-2</v>
       </c>
       <c r="D6">
-        <v>8.3023571623989129E-2</v>
+        <v>8.3064346356350391E-2</v>
       </c>
       <c r="E6">
-        <v>8.3953664475984388E-3</v>
+        <v>8.3993032285367038E-3</v>
       </c>
       <c r="F6">
-        <v>4.3704846742684961E-2</v>
+        <v>4.3725340953228123E-2</v>
       </c>
       <c r="G6">
-        <v>7.7654549567975966E-3</v>
+        <v>7.7690963577110106E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.73789969148220169</v>
+        <v>0.73824570966471881</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.267159726321362E-3</v>
+        <v>6.2700985420480679E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.7691526407814072E-2</v>
+        <v>2.7704511603158861E-2</v>
       </c>
       <c r="N6">
-        <v>6.0817566775365406E-3</v>
+        <v>6.0846085534979619E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>3.7943591208964834E-4</v>
+        <v>3.5827171330757209E-4</v>
       </c>
       <c r="Q6">
-        <v>2.3437097888317316E-4</v>
+        <v>2.344808808401526E-4</v>
       </c>
       <c r="R6">
-        <v>6.1789325971816174E-3</v>
+        <v>6.1818300411727953E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,55 +890,55 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>4.1062315457100908E-2</v>
+        <v>4.1081046250925429E-2</v>
       </c>
       <c r="C7">
-        <v>6.6603498796360197E-3</v>
+        <v>6.6633880336954181E-3</v>
       </c>
       <c r="D7">
-        <v>6.1701205958527419E-2</v>
+        <v>6.1731144149040323E-2</v>
       </c>
       <c r="E7">
-        <v>8.5811717231930561E-3</v>
+        <v>8.5850860703634707E-3</v>
       </c>
       <c r="F7">
-        <v>9.2498733681758261E-2</v>
+        <v>9.2540927471619211E-2</v>
       </c>
       <c r="G7">
-        <v>1.236303457645623E-3</v>
+        <v>1.2368674040502971E-3</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.76472990179410938</v>
+        <v>0.76507873741047572</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.1692444692295769E-3</v>
+        <v>2.170233981643962E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.2366367954933621E-2</v>
+        <v>1.2372008939518701E-2</v>
       </c>
       <c r="N7">
-        <v>2.3563793876250731E-3</v>
+        <v>2.3574542626288468E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.3153408016614975E-4</v>
+        <v>1.1150005171023706E-4</v>
       </c>
       <c r="Q7">
-        <v>7.0088394755932299E-5</v>
+        <v>7.0120365950373099E-5</v>
       </c>
       <c r="R7">
-        <v>2.0701763369906723E-3</v>
+        <v>2.0711206589490634E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,55 +946,55 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>2.3265249088480208E-2</v>
+        <v>2.3265191205865104E-2</v>
       </c>
       <c r="C8">
-        <v>1.1045910478624612E-3</v>
+        <v>1.1045882997028236E-3</v>
       </c>
       <c r="D8">
-        <v>3.1692975591872882E-2</v>
+        <v>3.1692886963047222E-2</v>
       </c>
       <c r="E8">
-        <v>8.6137236193979012E-3</v>
+        <v>8.6137021889439724E-3</v>
       </c>
       <c r="F8">
-        <v>0.14782626442851665</v>
+        <v>0.14782589664518653</v>
       </c>
       <c r="G8">
-        <v>1.0317921443602152E-4</v>
+        <v>1.0317895773201043E-4</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.78014015461840103</v>
+        <v>0.78013821367411296</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.8461063128801804E-4</v>
+        <v>2.8460992319297222E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.4585643674076675E-3</v>
+        <v>2.4585582506394979E-3</v>
       </c>
       <c r="N8">
-        <v>3.1569285178099731E-4</v>
+        <v>3.1569206635515608E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.0692190566148865E-5</v>
+        <v>1.3180107030829545E-5</v>
       </c>
       <c r="Q8">
-        <v>1.0313636933477295E-5</v>
+        <v>1.031361127373583E-5</v>
       </c>
       <c r="R8">
-        <v>2.436307478737058E-4</v>
+        <v>2.4363014173427619E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>1.4930746698305493E-2</v>
+        <v>1.4930746698305528E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.7552937015133309E-2</v>
+        <v>1.7552937015133344E-2</v>
       </c>
       <c r="E9">
-        <v>8.6441474999543449E-3</v>
+        <v>8.6441474999543709E-3</v>
       </c>
       <c r="F9">
-        <v>0.16778885914133199</v>
+        <v>0.1677888591413314</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.78668896496476259</v>
+        <v>0.78668896496476304</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.6441476954972772E-4</v>
+        <v>4.6441476954972805E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>1.1189312345293282E-2</v>
+        <v>1.1189312345293309E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.0044760841194402E-2</v>
+        <v>1.004476084119443E-2</v>
       </c>
       <c r="E10">
-        <v>8.6701411627230496E-3</v>
+        <v>8.6701411627230791E-3</v>
       </c>
       <c r="F10">
-        <v>0.18104854865980036</v>
+        <v>0.18104854865979977</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.78502737092976516</v>
+        <v>0.78502737092976571</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.9984164736352188E-5</v>
+        <v>8.9984164736352283E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1115,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C6CAE5-8859-4317-A779-B711EB2087E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E14E152-4627-4AF2-9F14-1FD3720A1807}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1202,55 +1202,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.0615005626843888E-3</v>
+        <v>1.0625317964918642E-3</v>
       </c>
       <c r="C2">
-        <v>1.4949509746568063E-3</v>
+        <v>1.4961227773653777E-3</v>
       </c>
       <c r="D2">
-        <v>1.3612071065526461E-2</v>
+        <v>1.3621849012338249E-2</v>
       </c>
       <c r="E2">
-        <v>4.310248933916197E-4</v>
+        <v>4.3134658024881497E-4</v>
       </c>
       <c r="F2">
-        <v>1.0375882989436677E-4</v>
+        <v>1.0386605681519235E-4</v>
       </c>
       <c r="G2">
-        <v>8.7804708173844608E-3</v>
+        <v>8.787797623462934E-3</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.0618578324514943E-2</v>
+        <v>1.0630444380398238E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.4265221425396513E-4</v>
+        <v>4.4300793977152751E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>9.2489677737154748E-4</v>
+        <v>9.2580269517281903E-4</v>
       </c>
       <c r="N2">
-        <v>5.1693472485943542E-4</v>
+        <v>5.1734249138871841E-4</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>7.0996803830799729E-5</v>
+        <v>2.1843091191245745E-5</v>
       </c>
       <c r="Q2">
-        <v>2.720935465189852E-5</v>
+        <v>2.7232122854845535E-5</v>
       </c>
       <c r="R2">
-        <v>7.1176621315057755E-4</v>
+        <v>7.1231282869161901E-4</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,55 +1258,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1.3148865308934658E-3</v>
+        <v>1.3154841121851058E-3</v>
       </c>
       <c r="C3">
-        <v>1.6719993012765449E-3</v>
+        <v>1.6726240622222742E-3</v>
       </c>
       <c r="D3">
-        <v>1.6998148070996019E-2</v>
+        <v>1.7003970751005282E-2</v>
       </c>
       <c r="E3">
-        <v>5.0469054773414582E-4</v>
+        <v>5.0487020954142277E-4</v>
       </c>
       <c r="F3">
-        <v>7.9794200753539337E-5</v>
+        <v>7.9832395045989143E-5</v>
       </c>
       <c r="G3">
-        <v>4.5082081270001306E-3</v>
+        <v>4.5099963518502838E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.3179664993624024E-2</v>
+        <v>1.3186383290439944E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.6205013718456224E-4</v>
+        <v>5.6226527055215051E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.131193222503346E-3</v>
+        <v>1.131710923409934E-3</v>
       </c>
       <c r="N3">
-        <v>6.2791779711208399E-4</v>
+        <v>6.2815387224813071E-4</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>6.6252940283371606E-5</v>
+        <v>4.2794216615977763E-5</v>
       </c>
       <c r="Q3">
-        <v>2.9720475487941348E-5</v>
+        <v>2.9732295273398864E-5</v>
       </c>
       <c r="R3">
-        <v>8.6878017510602689E-4</v>
+        <v>8.6909836539829323E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,55 +1314,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.3155660005428264E-3</v>
+        <v>1.3170128682072567E-3</v>
       </c>
       <c r="C4">
-        <v>1.7981825687437896E-3</v>
+        <v>1.7997436417740926E-3</v>
       </c>
       <c r="D4">
-        <v>1.6869944111401847E-2</v>
+        <v>1.6883100153852009E-2</v>
       </c>
       <c r="E4">
-        <v>5.1177715967625664E-4</v>
+        <v>5.1219572301193885E-4</v>
       </c>
       <c r="F4">
-        <v>2.5125946760896736E-5</v>
+        <v>2.5155337274675567E-5</v>
       </c>
       <c r="G4">
-        <v>3.7364408138492828E-3</v>
+        <v>3.7399297732279954E-3</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.3368922227324598E-2</v>
+        <v>1.338576706601987E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.4357056438020847E-4</v>
+        <v>6.4414597416207484E-4</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.2034972157184516E-3</v>
+        <v>1.204831893769575E-3</v>
       </c>
       <c r="N4">
-        <v>6.6374674134153449E-4</v>
+        <v>6.6432732255903627E-4</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.0723258437986863E-4</v>
+        <v>3.674342712885042E-5</v>
       </c>
       <c r="Q4">
-        <v>2.9460249480169978E-5</v>
+        <v>2.9487845921310231E-5</v>
       </c>
       <c r="R4">
-        <v>9.3751841751852369E-4</v>
+        <v>9.3831253513250792E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,55 +1370,55 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1.5226220714490151E-3</v>
+        <v>1.5236774821092431E-3</v>
       </c>
       <c r="C5">
-        <v>1.4749487401636814E-3</v>
+        <v>1.4757493875462264E-3</v>
       </c>
       <c r="D5">
-        <v>1.9788569483343406E-2</v>
+        <v>1.9798014118256893E-2</v>
       </c>
       <c r="E5">
-        <v>5.6304135532469959E-4</v>
+        <v>5.6332628383706383E-4</v>
       </c>
       <c r="F5">
-        <v>3.0711685827937771E-4</v>
+        <v>3.0734203346126447E-4</v>
       </c>
       <c r="G5">
-        <v>1.0850845438340111E-3</v>
+        <v>1.085723060367471E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.6308744909459591E-2</v>
+        <v>1.6321494482421633E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.3382857290808368E-4</v>
+        <v>5.3412814775393228E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.1610427256933953E-3</v>
+        <v>1.1618537665479384E-3</v>
       </c>
       <c r="N5">
-        <v>5.134595597498351E-4</v>
+        <v>5.13740684917596E-4</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>8.3151812846465393E-5</v>
+        <v>4.1690486550639854E-5</v>
       </c>
       <c r="Q5">
-        <v>2.0187852350404431E-5</v>
+        <v>2.0199772308301513E-5</v>
       </c>
       <c r="R5">
-        <v>7.2925136946200644E-4</v>
+        <v>7.2963612144670987E-4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,55 +1426,55 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.3593149039926951E-3</v>
+        <v>1.3601980323901248E-3</v>
       </c>
       <c r="C6">
-        <v>7.7928042588477702E-4</v>
+        <v>7.7968623276037838E-4</v>
       </c>
       <c r="D6">
-        <v>1.6524140241434445E-2</v>
+        <v>1.6531940261707723E-2</v>
       </c>
       <c r="E6">
-        <v>6.0101812320946253E-4</v>
+        <v>6.0131442463175699E-4</v>
       </c>
       <c r="F6">
-        <v>1.0349100963187455E-3</v>
+        <v>1.0356231066861882E-3</v>
       </c>
       <c r="G6">
-        <v>2.9050243155465322E-4</v>
+        <v>2.9066426733594846E-4</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.5744855370421196E-2</v>
+        <v>1.5756505117511969E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.7061670561945214E-4</v>
+        <v>2.7076151254502536E-4</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>7.1336212651946335E-4</v>
+        <v>7.1382926497530973E-4</v>
       </c>
       <c r="N6">
-        <v>2.8688755645895063E-4</v>
+        <v>2.8703799285833772E-4</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>4.5624267063664927E-5</v>
+        <v>2.1999890693448044E-5</v>
       </c>
       <c r="Q6">
-        <v>8.6869142220530547E-6</v>
+        <v>8.6917679229755616E-6</v>
       </c>
       <c r="R6">
-        <v>3.4245614755275901E-4</v>
+        <v>3.42630489391059E-4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,55 +1482,55 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>9.8141134837853496E-4</v>
+        <v>9.8197857441133132E-4</v>
       </c>
       <c r="C7">
-        <v>3.1730584921040104E-4</v>
+        <v>3.1746031854746611E-4</v>
       </c>
       <c r="D7">
-        <v>1.2455974220938137E-2</v>
+        <v>1.2461673704572442E-2</v>
       </c>
       <c r="E7">
-        <v>6.0761144143952847E-4</v>
+        <v>6.0789704006921534E-4</v>
       </c>
       <c r="F7">
-        <v>1.9608882436772013E-3</v>
+        <v>1.9620863298298241E-3</v>
       </c>
       <c r="G7">
-        <v>4.4372065783721001E-5</v>
+        <v>4.4394703343635654E-5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.4182913460426591E-2</v>
+        <v>1.4192252181169419E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.0829035043314219E-5</v>
+        <v>9.0874072346595658E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.9062583680791997E-4</v>
+        <v>2.907950226701817E-4</v>
       </c>
       <c r="N7">
-        <v>1.0833867971503321E-4</v>
+        <v>1.0839166546270008E-4</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.5754963381355459E-5</v>
+        <v>6.7448054430838814E-6</v>
       </c>
       <c r="Q7">
-        <v>2.4903391221360004E-6</v>
+        <v>2.4916123692996835E-6</v>
       </c>
       <c r="R7">
-        <v>1.12637587431092E-4</v>
+        <v>1.1269161535268196E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,55 +1538,55 @@
         <v>45</v>
       </c>
       <c r="B8">
-        <v>5.0317243977566724E-4</v>
+        <v>5.0317085933933054E-4</v>
       </c>
       <c r="C8">
-        <v>5.14102093883995E-5</v>
+        <v>5.141007423360241E-5</v>
       </c>
       <c r="D8">
-        <v>6.7602860372380207E-3</v>
+        <v>6.7602692254312823E-3</v>
       </c>
       <c r="E8">
-        <v>6.0358933167804004E-4</v>
+        <v>6.0358779243541822E-4</v>
       </c>
       <c r="F8">
-        <v>2.7494106952693745E-3</v>
+        <v>2.7494014271890682E-3</v>
       </c>
       <c r="G8">
-        <v>3.551339810242497E-6</v>
+        <v>3.5513300590727509E-6</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.2098075085736329E-2</v>
+        <v>1.2098029620406651E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.1559968053081026E-5</v>
+        <v>1.155993715222502E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.2086224642272431E-5</v>
+        <v>5.2086059608304392E-5</v>
       </c>
       <c r="N8">
-        <v>1.4154807394572463E-5</v>
+        <v>1.4154770027628922E-5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.2760682107236645E-6</v>
+        <v>7.8591477669123605E-7</v>
       </c>
       <c r="Q8">
-        <v>3.511183636326384E-7</v>
+        <v>3.5111739753600506E-7</v>
       </c>
       <c r="R8">
-        <v>1.302212646467363E-5</v>
+        <v>1.3022092674124441E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B9">
-        <v>3.1368420651946738E-4</v>
+        <v>3.1368420651946776E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.0890420459992315E-3</v>
+        <v>4.0890420459992437E-3</v>
       </c>
       <c r="E9">
-        <v>6.0409284808716221E-4</v>
+        <v>6.040928480871621E-4</v>
       </c>
       <c r="F9">
-        <v>2.9994116685463832E-3</v>
+        <v>2.9994116685463849E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.1511481212219399E-2</v>
+        <v>1.1511481212219437E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>9.5455671012158788E-6</v>
+        <v>9.5455671012159008E-6</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>2.3271760025105916E-4</v>
+        <v>2.3271760025105943E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.6786063909331674E-3</v>
+        <v>2.6786063909331752E-3</v>
       </c>
       <c r="E10">
-        <v>6.0536175941044686E-4</v>
+        <v>6.0536175941044675E-4</v>
       </c>
       <c r="F10">
-        <v>3.1914435113558968E-3</v>
+        <v>3.191443511355899E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.1247967669393413E-2</v>
+        <v>1.1247967669393451E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.8301133316922458E-6</v>
+        <v>1.8301133316922496E-6</v>
       </c>
       <c r="N10">
         <v>0</v>
